--- a/data/HR1/Market Data/HR1_market_data_2045.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2045.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C18ED9-36D3-43E6-A6C6-835D956E5128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0ABBE8-A172-42FB-A5EE-D23779CE41E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39015" yWindow="-6060" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/HR1/Market Data/HR1_market_data_2045.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0ABBE8-A172-42FB-A5EE-D23779CE41E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C7852B-203C-49D8-BC1F-DFDB33767841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39015" yWindow="-6060" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-12390" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,10 +1363,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2045.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2045.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C7852B-203C-49D8-BC1F-DFDB33767841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE772BD9-FB38-47B2-B035-2FFB35BD9B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12390" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,11 +1363,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
